--- a/Data/Input/Emails.xlsx
+++ b/Data/Input/Emails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rampiggy\Documents\UiPath\uipath-automation-10\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C42688A-D744-46D5-9979-33E0BC2E0B49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FD88AD-450A-4EBE-B80E-EA998B2A24DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="14400" windowHeight="8273" xr2:uid="{9EAF65E5-AA5C-4F7E-A592-909056065010}"/>
+    <workbookView xWindow="-19310" yWindow="-10980" windowWidth="19420" windowHeight="10420" xr2:uid="{9EAF65E5-AA5C-4F7E-A592-909056065010}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,19 +34,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>pluradmiles@gmail.com</t>
   </si>
   <si>
     <t>kilometers520@gmail.com</t>
   </si>
+  <si>
+    <t>Emails</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +64,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,9 +93,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -402,28 +412,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE41DEE0-B77A-4A81-B071-1F44D9A736C8}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="25.06640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{43D4E4A3-0C44-4D46-9BD7-675B1D46EE81}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{E3601152-5A7B-4D9C-BDA9-332AD4BD5DB1}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{896A0BFF-6195-40FA-AC54-586EF0908A7C}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{34CFF457-4879-4F99-AA69-3B5382F1DA6A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
